--- a/data/trans_bre/IMC_inf_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IMC_inf_R2-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con al menos sobrepeso</t>
+          <t>Población con sobrepeso u obesidad declarado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,74</t>
+          <t>-19,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-36,41%</t>
+          <t>-38,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,49%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,72; -4,94</t>
+          <t>-32,14; -6,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 14,45</t>
+          <t>-17,58; 11,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 21,24</t>
+          <t>-10,6; 22,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 17,45</t>
+          <t>-17,88; 21,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,66; -12,28</t>
+          <t>-57,09; -14,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 51,34</t>
+          <t>-32,52; 29,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 56,69</t>
+          <t>-18,24; 49,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 72,26</t>
+          <t>-41,66; 78,35</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,28</t>
+          <t>-12,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-8,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>-12,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>-26,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,64%</t>
+          <t>-17,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>-22,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-29,04%</t>
+          <t>-29,42%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,48; -6,23</t>
+          <t>-18,35; -7,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 0,7</t>
+          <t>-15,02; -2,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -3,32</t>
+          <t>-15,94; -4,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,66; -5,52</t>
+          <t>-18,94; -6,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,28; -14,54</t>
+          <t>-36,57; -15,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 1,79</t>
+          <t>-27,16; -4,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,06; -8,71</t>
+          <t>-33,6; -11,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,3; -15,88</t>
+          <t>-41,34; -15,75</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,55</t>
+          <t>-9,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>-15,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>-8,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,81%</t>
+          <t>-19,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-26,97%</t>
+          <t>-35,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>-26,08%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 13,03</t>
+          <t>-6,18; 13,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 1,72</t>
+          <t>-19,87; -0,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,82; -1,39</t>
+          <t>-24,45; -5,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 2,78</t>
+          <t>-17,14; 0,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 50,72</t>
+          <t>-16,7; 45,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 4,36</t>
+          <t>-37,54; 0,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,36; -4,32</t>
+          <t>-50,58; -13,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 12,27</t>
+          <t>-46,91; 1,97</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>-10,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-19,9%</t>
+          <t>-22,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,61%</t>
+          <t>-16,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>-22,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-24,78%</t>
+          <t>-26,31%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -4,14</t>
+          <t>-14,69; -5,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -0,31</t>
+          <t>-13,04; -3,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -3,0</t>
+          <t>-14,47; -4,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -4,04</t>
+          <t>-15,73; -5,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,68; -10,55</t>
+          <t>-30,58; -12,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,43; -0,74</t>
+          <t>-24,52; -6,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,97; -7,83</t>
+          <t>-30,77; -10,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,57; -12,38</t>
+          <t>-37,36; -14,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IMC_inf_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IMC_inf_R2-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-19,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,74%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,63; -6,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,52; 11,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,41; 21,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,83; 24,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,94; -14,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,17; 28,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,58; 51,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,35; 86,42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-19,03</t>
+          <t>-12,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-8,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-13,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-38,03%</t>
+          <t>-26,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>-17,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>-22,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>-32,12%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,14; -6,07</t>
+          <t>-18,42; -6,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 11,84</t>
+          <t>-14,89; -2,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 22,38</t>
+          <t>-15,21; -3,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 21,55</t>
+          <t>-20,27; -5,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,09; -14,7</t>
+          <t>-36,49; -14,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 29,08</t>
+          <t>-27,37; -5,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 49,63</t>
+          <t>-32,19; -8,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 78,35</t>
+          <t>-45,69; -15,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,62</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,99</t>
+          <t>-9,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>-15,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,46</t>
+          <t>-7,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,11%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,39%</t>
+          <t>-19,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-22,33%</t>
+          <t>-35,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-29,42%</t>
+          <t>-24,45%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,35; -7,04</t>
+          <t>-6,31; 11,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,02; -2,43</t>
+          <t>-19,75; 1,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -4,8</t>
+          <t>-24,67; -5,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,94; -6,32</t>
+          <t>-16,79; 1,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,57; -15,45</t>
+          <t>-16,33; 40,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,16; -4,94</t>
+          <t>-36,97; 2,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,6; -11,13</t>
+          <t>-51,48; -13,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,34; -15,75</t>
+          <t>-47,52; 5,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>-10,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>-8,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,53</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>-10,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>-22,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,72%</t>
+          <t>-16,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-35,31%</t>
+          <t>-22,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-26,08%</t>
+          <t>-27,81%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 13,09</t>
+          <t>-14,42; -5,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,87; -0,06</t>
+          <t>-12,83; -3,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,45; -5,51</t>
+          <t>-14,65; -5,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 0,46</t>
+          <t>-17,28; -5,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 45,15</t>
+          <t>-30,69; -11,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,54; 0,29</t>
+          <t>-24,31; -6,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,58; -13,91</t>
+          <t>-31,02; -12,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,91; 1,97</t>
+          <t>-41,7; -15,67</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-10,18</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,33</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-9,85</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-10,34</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-22,41%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-16,5%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-22,02%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-26,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,69; -5,68</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-13,04; -3,07</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-14,47; -4,51</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-15,73; -5,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-30,58; -12,99</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-24,52; -6,5</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-30,77; -10,65</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-37,36; -14,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
